--- a/biology/Médecine/Veine_anastomotique_inférieure/Veine_anastomotique_inférieure.xlsx
+++ b/biology/Médecine/Veine_anastomotique_inférieure/Veine_anastomotique_inférieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_anastomotique_inf%C3%A9rieure</t>
+          <t>Veine_anastomotique_inférieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine anastomotique inférieure (ou veine de Labbé ou veine anastomotique de Labbé ou veine anastomotique postérieure de Labbé ou petite veine anastomotique) est une des veines superficielles du cerveau.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_anastomotique_inf%C3%A9rieure</t>
+          <t>Veine_anastomotique_inférieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine anastomotique inférieure croise obliquement en bas et en arrière la face externe des lobes temporal et occipital.
 Elle s'anastomose à ses deux extrémités avec la veine cérébrale moyenne superficielle et le sinus transverse.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_anastomotique_inf%C3%A9rieure</t>
+          <t>Veine_anastomotique_inférieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine anastomotique inférieure porte également le nom du chirurgien français du XIXe siècle Charles Labbé (1851–1889), neveu du chirurgien et homme politique Léon Labbé (1832–1916).
  Portail de l’anatomie   Portail de la médecine                    </t>
